--- a/wxpython_ui/createsp/vp_sp_last.xlsx
+++ b/wxpython_ui/createsp/vp_sp_last.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python\project-2\wxpython_ui\createsp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58967853-C1C4-415E-93EB-C2A8A26F3213}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136823AD-15E7-4DFB-BA64-387A77D65B68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,7 +1190,7 @@
   <dimension ref="A3:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:K8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
